--- a/RiskRegister_RT.xlsx
+++ b/RiskRegister_RT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\ECEN 3753\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\ECEN 3753\Project\RTOS-Project-RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C135B8-E229-44D6-B471-7B47597F0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4B747-3E28-4ED4-8F8C-08AB9B1A16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ROAM</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -69,16 +66,28 @@
     <t>Valid Modified Fibonacci values</t>
   </si>
   <si>
-    <t>Will work over spring break a bit to find more tests</t>
-  </si>
-  <si>
     <t>Testing physics task initially without a display</t>
   </si>
   <si>
     <t>Not too sure what/where to unit test currently</t>
   </si>
   <si>
-    <t>Try to use debugger in Simplicity with simple unit test values at first or set up a basic display function to view physics</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Updated task diagram and found good locations for unit tests</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t>Set up satchels first in phys/monitor to watch how they drop</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1520,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1545,7 +1554,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>13</v>
@@ -1560,17 +1569,19 @@
       <c r="E2" s="2">
         <v>45005</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -1585,12 +1596,14 @@
       <c r="E3" s="2">
         <v>45005</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1688,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/RiskRegister_RT.xlsx
+++ b/RiskRegister_RT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\ECEN 3753\Project\RTOS-Project-RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4B747-3E28-4ED4-8F8C-08AB9B1A16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E7BA1-794F-4725-B833-FB5501A26213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -88,13 +88,28 @@
   </si>
   <si>
     <t>Set up satchels first in phys/monitor to watch how they drop</t>
+  </si>
+  <si>
+    <t>When try to stop physics test on game over, game can freeze up</t>
+  </si>
+  <si>
+    <t>Physics task continues to run after game is over</t>
+  </si>
+  <si>
+    <t>Some inconsistancy between display/phys for satchel hit</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>change when the phys task checks for platform-satchel collision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +127,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +186,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,10 +295,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,10 +316,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,6 +1251,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H10" totalsRowShown="0" headerRowBorderDxfId="6">
   <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
+    <sortCondition descending="1" ref="D1:D10"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P" dataDxfId="5"/>
@@ -1508,19 +1546,19 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
     <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.109375" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1553,30 +1591,30 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D10" si="0">B2*C2</f>
-        <v>39</v>
+        <f>B2*C2</f>
+        <v>400</v>
       </c>
       <c r="E2" s="2">
-        <v>45005</v>
+        <v>45028</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1590,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f>B3*C3</f>
         <v>100</v>
       </c>
       <c r="E3" s="2">
@@ -1607,24 +1645,60 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45028</v>
+      </c>
       <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <f>B5*C5</f>
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45005</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>B6*C6</f>
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
@@ -1632,7 +1706,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>B7*C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
@@ -1640,7 +1714,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f>B8*C8</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
@@ -1648,7 +1722,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>B9*C9</f>
         <v>0</v>
       </c>
       <c r="E9" s="2"/>
@@ -1656,7 +1730,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>B10*C10</f>
         <v>0</v>
       </c>
       <c r="E10" s="2"/>

--- a/RiskRegister_RT.xlsx
+++ b/RiskRegister_RT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\ECEN 3753\Project\RTOS-Project-RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E7BA1-794F-4725-B833-FB5501A26213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24B69D-CD8E-4BBF-8E88-372ACFC6686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -93,16 +93,16 @@
     <t>When try to stop physics test on game over, game can freeze up</t>
   </si>
   <si>
-    <t>Physics task continues to run after game is over</t>
-  </si>
-  <si>
     <t>Some inconsistancy between display/phys for satchel hit</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>change when the phys task checks for platform-satchel collision</t>
+    <t>Physics task continues to run after game is over but gets reset to a default state when game is reactivated</t>
+  </si>
+  <si>
+    <t>Physics task checks for a hit slightly above the ground instead of when ground is hit</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2*C2</f>
         <v>400</v>
       </c>
       <c r="E2" s="2">
@@ -1614,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E3" s="2">
@@ -1646,7 +1646,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1655,15 +1655,17 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>45028</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1680,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E5" s="2">
@@ -1698,7 +1700,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
@@ -1706,7 +1708,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
@@ -1714,7 +1716,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="2"/>
@@ -1730,7 +1732,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
